--- a/pred_ohlcv/54/2019-10-05 CMT ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-05 CMT ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H204"/>
+  <dimension ref="A1:I184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="D2" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>9495.7233</v>
+        <v>58151.8033</v>
       </c>
       <c r="G2" t="n">
-        <v>26.07833333333334</v>
+        <v>26.07166666666668</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="C3" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="E3" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n">
-        <v>22185.4615</v>
+        <v>9495.7233</v>
       </c>
       <c r="G3" t="n">
-        <v>26.08333333333335</v>
+        <v>26.07833333333334</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="E4" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="F4" t="n">
-        <v>52965.9746</v>
+        <v>22185.4615</v>
       </c>
       <c r="G4" t="n">
-        <v>26.09333333333335</v>
+        <v>26.08333333333335</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>26</v>
       </c>
       <c r="F5" t="n">
-        <v>47979.7896</v>
+        <v>52965.9746</v>
       </c>
       <c r="G5" t="n">
-        <v>26.10666666666668</v>
+        <v>26.09333333333335</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>17586.7782</v>
+        <v>47979.7896</v>
       </c>
       <c r="G6" t="n">
-        <v>26.11166666666668</v>
+        <v>26.10666666666668</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -541,21 +561,24 @@
         <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
         <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>115943.9089</v>
+        <v>17586.7782</v>
       </c>
       <c r="G7" t="n">
         <v>26.11166666666668</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
         <v>25.9</v>
       </c>
       <c r="D8" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
         <v>25.9</v>
       </c>
       <c r="F8" t="n">
-        <v>76440.969</v>
+        <v>115943.9089</v>
       </c>
       <c r="G8" t="n">
-        <v>26.10833333333335</v>
+        <v>26.11166666666668</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="D9" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="E9" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="F9" t="n">
-        <v>7418.9676</v>
+        <v>76440.969</v>
       </c>
       <c r="G9" t="n">
-        <v>26.10500000000001</v>
+        <v>26.10833333333335</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="C10" t="n">
         <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="E10" t="n">
         <v>26</v>
       </c>
       <c r="F10" t="n">
-        <v>1582.5196</v>
+        <v>7418.9676</v>
       </c>
       <c r="G10" t="n">
-        <v>26.11000000000001</v>
+        <v>26.10500000000001</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="E11" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>216747.3928</v>
+        <v>1582.5196</v>
       </c>
       <c r="G11" t="n">
-        <v>26.10833333333334</v>
+        <v>26.11000000000001</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="C12" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="D12" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="E12" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="F12" t="n">
-        <v>105475.9203</v>
+        <v>216747.3928</v>
       </c>
       <c r="G12" t="n">
-        <v>26.11666666666668</v>
+        <v>26.10833333333334</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="D13" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="E13" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="F13" t="n">
-        <v>233937.9898</v>
+        <v>105475.9203</v>
       </c>
       <c r="G13" t="n">
-        <v>26.12000000000001</v>
+        <v>26.11666666666668</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C14" t="n">
         <v>25.4</v>
       </c>
-      <c r="C14" t="n">
-        <v>25.2</v>
-      </c>
       <c r="D14" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E14" t="n">
         <v>25.4</v>
       </c>
-      <c r="E14" t="n">
-        <v>25.2</v>
-      </c>
       <c r="F14" t="n">
-        <v>118032.9229</v>
+        <v>233937.9898</v>
       </c>
       <c r="G14" t="n">
-        <v>26.11833333333335</v>
+        <v>26.12000000000001</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="C15" t="n">
         <v>25.2</v>
       </c>
       <c r="D15" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="E15" t="n">
         <v>25.2</v>
       </c>
       <c r="F15" t="n">
-        <v>85211.2629</v>
+        <v>118032.9229</v>
       </c>
       <c r="G15" t="n">
-        <v>26.11500000000001</v>
+        <v>26.11833333333335</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="C16" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="D16" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="E16" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="F16" t="n">
-        <v>1787.1703</v>
+        <v>85211.2629</v>
       </c>
       <c r="G16" t="n">
-        <v>26.10666666666668</v>
+        <v>26.11500000000001</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="C17" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="D17" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="E17" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="F17" t="n">
-        <v>24086.7736</v>
+        <v>1787.1703</v>
       </c>
       <c r="G17" t="n">
-        <v>26.10000000000002</v>
+        <v>26.10666666666668</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="C18" t="n">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="D18" t="n">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="E18" t="n">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>24086.7736</v>
       </c>
       <c r="G18" t="n">
-        <v>26.10166666666668</v>
+        <v>26.10000000000002</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="C19" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="D19" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="E19" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="F19" t="n">
-        <v>16469.1216</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>26.09500000000002</v>
+        <v>26.10166666666668</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="C20" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="D20" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="E20" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="F20" t="n">
-        <v>7358.3157</v>
+        <v>16469.1216</v>
       </c>
       <c r="G20" t="n">
-        <v>26.08166666666668</v>
+        <v>26.09500000000002</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C21" t="n">
         <v>25.3</v>
       </c>
-      <c r="C21" t="n">
-        <v>25.2</v>
-      </c>
       <c r="D21" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E21" t="n">
         <v>25.3</v>
       </c>
-      <c r="E21" t="n">
-        <v>25.2</v>
-      </c>
       <c r="F21" t="n">
-        <v>99586.3921</v>
+        <v>7358.3157</v>
       </c>
       <c r="G21" t="n">
-        <v>26.06666666666668</v>
+        <v>26.08166666666668</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="C22" t="n">
         <v>25.2</v>
       </c>
       <c r="D22" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="E22" t="n">
         <v>25.2</v>
       </c>
       <c r="F22" t="n">
-        <v>2103.0497</v>
+        <v>99586.3921</v>
       </c>
       <c r="G22" t="n">
-        <v>26.05666666666669</v>
+        <v>26.06666666666668</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="D23" t="n">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="E23" t="n">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>2103.0497</v>
       </c>
       <c r="G23" t="n">
-        <v>26.05333333333335</v>
+        <v>26.05666666666669</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,16 +1051,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="C24" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="D24" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="E24" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="F24" t="n">
         <v>10</v>
@@ -998,6 +1069,9 @@
         <v>26.05333333333335</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>26</v>
       </c>
       <c r="F25" t="n">
-        <v>22977</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>26.04166666666669</v>
+        <v>26.05333333333335</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="C26" t="n">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="D26" t="n">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="E26" t="n">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="F26" t="n">
-        <v>1037.409</v>
+        <v>22977</v>
       </c>
       <c r="G26" t="n">
-        <v>26.02333333333335</v>
+        <v>26.04166666666669</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="C27" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="D27" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="E27" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="F27" t="n">
-        <v>1376.353707751938</v>
+        <v>1037.409</v>
       </c>
       <c r="G27" t="n">
-        <v>26.01166666666669</v>
+        <v>26.02333333333335</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C28" t="n">
         <v>25.8</v>
       </c>
-      <c r="C28" t="n">
-        <v>25.9</v>
-      </c>
       <c r="D28" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="E28" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>1376.353707751938</v>
       </c>
       <c r="G28" t="n">
-        <v>26.01000000000002</v>
+        <v>26.01166666666669</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="C29" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="D29" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="E29" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="F29" t="n">
-        <v>400.0337</v>
+        <v>100</v>
       </c>
       <c r="G29" t="n">
-        <v>26.00166666666669</v>
+        <v>26.01000000000002</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="C30" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="D30" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="E30" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F30" t="n">
-        <v>400</v>
+        <v>400.0337</v>
       </c>
       <c r="G30" t="n">
-        <v>26.00333333333335</v>
+        <v>26.00166666666669</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
       <c r="C31" t="n">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
       <c r="D31" t="n">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
       <c r="E31" t="n">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
       <c r="F31" t="n">
-        <v>1787.1704</v>
+        <v>400</v>
       </c>
       <c r="G31" t="n">
-        <v>26.00500000000002</v>
+        <v>26.00333333333335</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="C32" t="n">
-        <v>26.1</v>
+        <v>25.7</v>
       </c>
       <c r="D32" t="n">
-        <v>26.1</v>
+        <v>25.7</v>
       </c>
       <c r="E32" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="F32" t="n">
-        <v>1387.17</v>
+        <v>1787.1704</v>
       </c>
       <c r="G32" t="n">
-        <v>26.01500000000002</v>
+        <v>26.00500000000002</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="C33" t="n">
-        <v>25.6</v>
+        <v>26.1</v>
       </c>
       <c r="D33" t="n">
-        <v>25.6</v>
+        <v>26.1</v>
       </c>
       <c r="E33" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="F33" t="n">
-        <v>2509.7656</v>
+        <v>1387.17</v>
       </c>
       <c r="G33" t="n">
-        <v>26.01333333333335</v>
+        <v>26.01500000000002</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="C34" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="D34" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="E34" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>2509.7656</v>
       </c>
       <c r="G34" t="n">
-        <v>26.01666666666669</v>
+        <v>26.01333333333335</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="C35" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="D35" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="E35" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="F35" t="n">
-        <v>248.9189</v>
+        <v>100</v>
       </c>
       <c r="G35" t="n">
         <v>26.01666666666669</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="C36" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="D36" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="E36" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="F36" t="n">
-        <v>102541.7205</v>
+        <v>248.9189</v>
       </c>
       <c r="G36" t="n">
-        <v>26.01000000000002</v>
+        <v>26.01666666666669</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="C37" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="D37" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="E37" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="F37" t="n">
-        <v>26</v>
+        <v>102541.7205</v>
       </c>
       <c r="G37" t="n">
-        <v>26.00166666666668</v>
+        <v>26.01000000000002</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="C38" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="D38" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="E38" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="F38" t="n">
-        <v>12384.9802</v>
+        <v>26</v>
       </c>
       <c r="G38" t="n">
-        <v>25.99833333333335</v>
+        <v>26.00166666666668</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>25.3</v>
       </c>
       <c r="F39" t="n">
-        <v>3937.1163</v>
+        <v>12384.9802</v>
       </c>
       <c r="G39" t="n">
-        <v>25.99000000000002</v>
+        <v>25.99833333333335</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>25.3</v>
       </c>
       <c r="F40" t="n">
-        <v>11623.0469</v>
+        <v>3937.1163</v>
       </c>
       <c r="G40" t="n">
-        <v>25.98000000000001</v>
+        <v>25.99000000000002</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>25.3</v>
       </c>
       <c r="F41" t="n">
-        <v>7088.713</v>
+        <v>11623.0469</v>
       </c>
       <c r="G41" t="n">
-        <v>25.97000000000001</v>
+        <v>25.98000000000001</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="C42" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="D42" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="E42" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="F42" t="n">
-        <v>20333.933</v>
+        <v>7088.713</v>
       </c>
       <c r="G42" t="n">
-        <v>25.95833333333335</v>
+        <v>25.97000000000001</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="C43" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="D43" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="E43" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>20333.933</v>
       </c>
       <c r="G43" t="n">
-        <v>25.95166666666668</v>
+        <v>25.95833333333335</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="C44" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="D44" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="E44" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="F44" t="n">
-        <v>17.7555</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>25.94500000000001</v>
+        <v>25.95166666666668</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1529,21 +1663,24 @@
         <v>25.5</v>
       </c>
       <c r="C45" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="D45" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="E45" t="n">
         <v>25.5</v>
       </c>
       <c r="F45" t="n">
-        <v>3908.75</v>
+        <v>17.7555</v>
       </c>
       <c r="G45" t="n">
-        <v>25.93166666666668</v>
+        <v>25.94500000000001</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="C46" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="D46" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="E46" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="F46" t="n">
-        <v>427.8882</v>
+        <v>3908.75</v>
       </c>
       <c r="G46" t="n">
-        <v>25.91666666666668</v>
+        <v>25.93166666666668</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>25.4</v>
       </c>
       <c r="F47" t="n">
-        <v>14231.211</v>
+        <v>427.8882</v>
       </c>
       <c r="G47" t="n">
-        <v>25.89000000000001</v>
+        <v>25.91666666666668</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="C48" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="D48" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="E48" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="F48" t="n">
-        <v>11243.4778</v>
+        <v>14231.211</v>
       </c>
       <c r="G48" t="n">
-        <v>25.86500000000001</v>
+        <v>25.89000000000001</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="C49" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="D49" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="E49" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="F49" t="n">
-        <v>23</v>
+        <v>11243.4778</v>
       </c>
       <c r="G49" t="n">
-        <v>25.84000000000001</v>
+        <v>25.86500000000001</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="C50" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="D50" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="E50" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="F50" t="n">
-        <v>30677.6175</v>
+        <v>23</v>
       </c>
       <c r="G50" t="n">
-        <v>25.81500000000001</v>
+        <v>25.84000000000001</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1685,21 +1837,24 @@
         <v>25.3</v>
       </c>
       <c r="C51" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="D51" t="n">
         <v>25.3</v>
       </c>
       <c r="E51" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="F51" t="n">
-        <v>1180</v>
+        <v>30677.6175</v>
       </c>
       <c r="G51" t="n">
-        <v>25.80000000000001</v>
+        <v>25.81500000000001</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>25.3</v>
       </c>
       <c r="F52" t="n">
-        <v>61.6625</v>
+        <v>1180</v>
       </c>
       <c r="G52" t="n">
-        <v>25.77666666666668</v>
+        <v>25.80000000000001</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>25.3</v>
       </c>
       <c r="F53" t="n">
-        <v>1626.7591</v>
+        <v>61.6625</v>
       </c>
       <c r="G53" t="n">
-        <v>25.75000000000001</v>
+        <v>25.77666666666668</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="C54" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="D54" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="E54" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="F54" t="n">
-        <v>15.3732</v>
+        <v>1626.7591</v>
       </c>
       <c r="G54" t="n">
-        <v>25.72000000000001</v>
+        <v>25.75000000000001</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,13 +1962,16 @@
         <v>25.4</v>
       </c>
       <c r="F55" t="n">
-        <v>30</v>
+        <v>15.3732</v>
       </c>
       <c r="G55" t="n">
-        <v>25.69000000000001</v>
+        <v>25.72000000000001</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1815,21 +1982,24 @@
         <v>25.4</v>
       </c>
       <c r="C56" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="D56" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="E56" t="n">
         <v>25.4</v>
       </c>
       <c r="F56" t="n">
-        <v>71910.96831328125</v>
+        <v>30</v>
       </c>
       <c r="G56" t="n">
-        <v>25.67166666666667</v>
+        <v>25.69000000000001</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,7 +2008,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="C57" t="n">
         <v>25.6</v>
@@ -1847,16 +2017,19 @@
         <v>25.6</v>
       </c>
       <c r="E57" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="F57" t="n">
-        <v>15.9319</v>
+        <v>71910.96831328125</v>
       </c>
       <c r="G57" t="n">
-        <v>25.65</v>
+        <v>25.67166666666667</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1867,22 +2040,25 @@
         <v>25.6</v>
       </c>
       <c r="C58" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="D58" t="n">
-        <v>27.5</v>
+        <v>25.6</v>
       </c>
       <c r="E58" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="F58" t="n">
-        <v>287184.2196867188</v>
+        <v>15.9319</v>
       </c>
       <c r="G58" t="n">
-        <v>25.63833333333334</v>
+        <v>25.65</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1890,25 +2066,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>26.1</v>
+        <v>25.6</v>
       </c>
       <c r="C59" t="n">
-        <v>27.5</v>
+        <v>26</v>
       </c>
       <c r="D59" t="n">
         <v>27.5</v>
       </c>
       <c r="E59" t="n">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="F59" t="n">
-        <v>16011</v>
+        <v>287184.2196867188</v>
       </c>
       <c r="G59" t="n">
-        <v>25.64833333333333</v>
+        <v>25.63833333333334</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1919,22 +2098,25 @@
         <v>26.1</v>
       </c>
       <c r="C60" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D60" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E60" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F60" t="n">
-        <v>13000</v>
+        <v>16011</v>
       </c>
       <c r="G60" t="n">
-        <v>25.66</v>
+        <v>25.64833333333333</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>25.5</v>
+        <v>26.1</v>
       </c>
       <c r="C61" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D61" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E61" t="n">
-        <v>25.5</v>
+        <v>26.1</v>
       </c>
       <c r="F61" t="n">
-        <v>4011</v>
+        <v>13000</v>
       </c>
       <c r="G61" t="n">
-        <v>25.67333333333334</v>
+        <v>25.66</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1968,7 +2153,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>26.2</v>
+        <v>25.5</v>
       </c>
       <c r="C62" t="n">
         <v>27.3</v>
@@ -1977,16 +2162,19 @@
         <v>27.3</v>
       </c>
       <c r="E62" t="n">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="F62" t="n">
-        <v>21500</v>
+        <v>4011</v>
       </c>
       <c r="G62" t="n">
-        <v>25.695</v>
+        <v>25.67333333333334</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1994,25 +2182,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C63" t="n">
-        <v>26</v>
+        <v>27.3</v>
       </c>
       <c r="D63" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="E63" t="n">
         <v>26</v>
       </c>
       <c r="F63" t="n">
-        <v>42663</v>
+        <v>21500</v>
       </c>
       <c r="G63" t="n">
-        <v>25.69666666666667</v>
+        <v>25.695</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2020,25 +2211,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="C64" t="n">
         <v>26</v>
       </c>
       <c r="D64" t="n">
-        <v>26.2</v>
+        <v>27.1</v>
       </c>
       <c r="E64" t="n">
         <v>26</v>
       </c>
       <c r="F64" t="n">
-        <v>6000</v>
+        <v>42663</v>
       </c>
       <c r="G64" t="n">
         <v>25.69666666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2046,25 +2240,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="C65" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D65" t="n">
         <v>26.2</v>
       </c>
       <c r="E65" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F65" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="G65" t="n">
-        <v>25.7</v>
+        <v>25.69666666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C66" t="n">
         <v>26.2</v>
       </c>
       <c r="D66" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E66" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F66" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="G66" t="n">
-        <v>25.70333333333333</v>
+        <v>25.7</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C67" t="n">
         <v>26.2</v>
       </c>
-      <c r="C67" t="n">
-        <v>26.7</v>
-      </c>
       <c r="D67" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="E67" t="n">
         <v>26.2</v>
       </c>
       <c r="F67" t="n">
-        <v>14010</v>
+        <v>24000</v>
       </c>
       <c r="G67" t="n">
-        <v>25.71666666666667</v>
+        <v>25.70333333333333</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="C68" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="D68" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="E68" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="F68" t="n">
-        <v>3668.16</v>
+        <v>14010</v>
       </c>
       <c r="G68" t="n">
-        <v>25.72666666666667</v>
+        <v>25.71666666666667</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2153,21 +2359,24 @@
         <v>26.5</v>
       </c>
       <c r="C69" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="D69" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="E69" t="n">
         <v>26.5</v>
       </c>
       <c r="F69" t="n">
-        <v>27617</v>
+        <v>3668.16</v>
       </c>
       <c r="G69" t="n">
-        <v>25.73833333333333</v>
+        <v>25.72666666666667</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,7 +2385,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="C70" t="n">
         <v>26.7</v>
@@ -2185,15 +2394,18 @@
         <v>26.7</v>
       </c>
       <c r="E70" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="F70" t="n">
-        <v>7762.9104</v>
+        <v>27617</v>
       </c>
       <c r="G70" t="n">
-        <v>25.75</v>
+        <v>25.73833333333333</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="C71" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="D71" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="E71" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="F71" t="n">
-        <v>3100</v>
+        <v>7762.9104</v>
       </c>
       <c r="G71" t="n">
-        <v>25.77333333333333</v>
+        <v>25.75</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="C72" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="D72" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="E72" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="F72" t="n">
-        <v>11</v>
+        <v>3100</v>
       </c>
       <c r="G72" t="n">
-        <v>25.79666666666667</v>
+        <v>25.77333333333333</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>27.1</v>
       </c>
       <c r="F73" t="n">
-        <v>89094.5202</v>
+        <v>11</v>
       </c>
       <c r="G73" t="n">
-        <v>25.825</v>
+        <v>25.79666666666667</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="C74" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D74" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E74" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F74" t="n">
-        <v>1600</v>
+        <v>89094.5202</v>
       </c>
       <c r="G74" t="n">
-        <v>25.86</v>
+        <v>25.825</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="C75" t="n">
-        <v>26.8</v>
+        <v>27.3</v>
       </c>
       <c r="D75" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="E75" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="F75" t="n">
-        <v>17000</v>
+        <v>1600</v>
       </c>
       <c r="G75" t="n">
-        <v>25.88666666666666</v>
+        <v>25.86</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="C76" t="n">
-        <v>27.5</v>
+        <v>26.8</v>
       </c>
       <c r="D76" t="n">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="E76" t="n">
-        <v>27.2</v>
+        <v>26.8</v>
       </c>
       <c r="F76" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="G76" t="n">
-        <v>25.92666666666666</v>
+        <v>25.88666666666666</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C77" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D77" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E77" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F77" t="n">
-        <v>15800</v>
+        <v>24000</v>
       </c>
       <c r="G77" t="n">
-        <v>25.96833333333333</v>
+        <v>25.92666666666666</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,7 +2617,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="C78" t="n">
         <v>27.7</v>
@@ -2393,15 +2626,18 @@
         <v>27.7</v>
       </c>
       <c r="E78" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="F78" t="n">
-        <v>55662.0216</v>
+        <v>15800</v>
       </c>
       <c r="G78" t="n">
-        <v>26.00333333333333</v>
+        <v>25.96833333333333</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C79" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D79" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E79" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="F79" t="n">
-        <v>43585.6434</v>
+        <v>55662.0216</v>
       </c>
       <c r="G79" t="n">
-        <v>26.04333333333333</v>
+        <v>26.00333333333333</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C80" t="n">
-        <v>27.1</v>
+        <v>27.6</v>
       </c>
       <c r="D80" t="n">
         <v>27.6</v>
       </c>
       <c r="E80" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F80" t="n">
-        <v>9424.519899999999</v>
+        <v>43585.6434</v>
       </c>
       <c r="G80" t="n">
-        <v>26.07333333333333</v>
+        <v>26.04333333333333</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C81" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="D81" t="n">
         <v>27.6</v>
       </c>
       <c r="E81" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F81" t="n">
-        <v>62665.966</v>
+        <v>9424.519899999999</v>
       </c>
       <c r="G81" t="n">
-        <v>26.10666666666666</v>
+        <v>26.07333333333333</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2500,12 +2745,15 @@
         <v>27.2</v>
       </c>
       <c r="F82" t="n">
-        <v>405.1101</v>
+        <v>62665.966</v>
       </c>
       <c r="G82" t="n">
-        <v>26.13999999999999</v>
+        <v>26.10666666666666</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,10 +2762,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C83" t="n">
         <v>27.2</v>
-      </c>
-      <c r="C83" t="n">
-        <v>27.6</v>
       </c>
       <c r="D83" t="n">
         <v>27.6</v>
@@ -2526,12 +2774,15 @@
         <v>27.2</v>
       </c>
       <c r="F83" t="n">
-        <v>321.0692</v>
+        <v>405.1101</v>
       </c>
       <c r="G83" t="n">
-        <v>26.17333333333333</v>
+        <v>26.13999999999999</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>27.2</v>
       </c>
       <c r="F84" t="n">
-        <v>805.9122</v>
+        <v>321.0692</v>
       </c>
       <c r="G84" t="n">
-        <v>26.19999999999999</v>
+        <v>26.17333333333333</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C85" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D85" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E85" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F85" t="n">
-        <v>8584.235699999999</v>
+        <v>805.9122</v>
       </c>
       <c r="G85" t="n">
-        <v>26.22499999999999</v>
+        <v>26.19999999999999</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C86" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D86" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E86" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F86" t="n">
-        <v>11</v>
+        <v>8584.235699999999</v>
       </c>
       <c r="G86" t="n">
-        <v>26.25999999999999</v>
+        <v>26.22499999999999</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="C87" t="n">
-        <v>26.8</v>
+        <v>27.6</v>
       </c>
       <c r="D87" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="E87" t="n">
-        <v>26.8</v>
+        <v>27.6</v>
       </c>
       <c r="F87" t="n">
-        <v>146492.479</v>
+        <v>11</v>
       </c>
       <c r="G87" t="n">
-        <v>26.27666666666666</v>
+        <v>26.25999999999999</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="C88" t="n">
         <v>26.8</v>
       </c>
       <c r="D88" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="E88" t="n">
         <v>26.8</v>
       </c>
       <c r="F88" t="n">
-        <v>5094.1791</v>
+        <v>146492.479</v>
       </c>
       <c r="G88" t="n">
-        <v>26.29166666666665</v>
+        <v>26.27666666666666</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="C89" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="D89" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="E89" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="F89" t="n">
-        <v>569</v>
+        <v>5094.1791</v>
       </c>
       <c r="G89" t="n">
-        <v>26.30166666666666</v>
+        <v>26.29166666666665</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2699,21 +2968,24 @@
         <v>26.6</v>
       </c>
       <c r="C90" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="D90" t="n">
         <v>26.6</v>
       </c>
       <c r="E90" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="F90" t="n">
-        <v>19497.1593</v>
+        <v>569</v>
       </c>
       <c r="G90" t="n">
-        <v>26.30666666666666</v>
+        <v>26.30166666666666</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="C91" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="D91" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="E91" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="F91" t="n">
-        <v>405.6009</v>
+        <v>19497.1593</v>
       </c>
       <c r="G91" t="n">
-        <v>26.31666666666666</v>
+        <v>26.30666666666666</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>26.3</v>
       </c>
       <c r="F92" t="n">
-        <v>8617.0299</v>
+        <v>405.6009</v>
       </c>
       <c r="G92" t="n">
-        <v>26.31999999999999</v>
+        <v>26.31666666666666</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>26.3</v>
       </c>
       <c r="F93" t="n">
-        <v>15403.3575</v>
+        <v>8617.0299</v>
       </c>
       <c r="G93" t="n">
-        <v>26.33166666666666</v>
+        <v>26.31999999999999</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>26.3</v>
       </c>
       <c r="F94" t="n">
-        <v>20732.2402</v>
+        <v>15403.3575</v>
       </c>
       <c r="G94" t="n">
-        <v>26.33666666666666</v>
+        <v>26.33166666666666</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2829,21 +3113,24 @@
         <v>26.3</v>
       </c>
       <c r="C95" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="D95" t="n">
         <v>26.3</v>
       </c>
       <c r="E95" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="F95" t="n">
-        <v>91864.9676</v>
+        <v>20732.2402</v>
       </c>
       <c r="G95" t="n">
-        <v>26.34166666666665</v>
+        <v>26.33666666666666</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C96" t="n">
         <v>26.2</v>
       </c>
       <c r="D96" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E96" t="n">
         <v>26.2</v>
       </c>
       <c r="F96" t="n">
-        <v>14862.8059</v>
+        <v>91864.9676</v>
       </c>
       <c r="G96" t="n">
-        <v>26.35333333333332</v>
+        <v>26.34166666666665</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>26.2</v>
       </c>
       <c r="F97" t="n">
-        <v>1000</v>
+        <v>14862.8059</v>
       </c>
       <c r="G97" t="n">
-        <v>26.36666666666666</v>
+        <v>26.35333333333332</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C98" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D98" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E98" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F98" t="n">
-        <v>4858.7854</v>
+        <v>1000</v>
       </c>
       <c r="G98" t="n">
-        <v>26.37999999999999</v>
+        <v>26.36666666666666</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>26.1</v>
       </c>
       <c r="F99" t="n">
-        <v>2503.4912</v>
+        <v>4858.7854</v>
       </c>
       <c r="G99" t="n">
-        <v>26.39333333333332</v>
+        <v>26.37999999999999</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>26.1</v>
       </c>
       <c r="F100" t="n">
-        <v>11057.1334</v>
+        <v>2503.4912</v>
       </c>
       <c r="G100" t="n">
-        <v>26.40666666666665</v>
+        <v>26.39333333333332</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C101" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D101" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E101" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F101" t="n">
-        <v>135573.8106</v>
+        <v>11057.1334</v>
       </c>
       <c r="G101" t="n">
-        <v>26.42166666666666</v>
+        <v>26.40666666666665</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C102" t="n">
-        <v>27.1</v>
+        <v>26.2</v>
       </c>
       <c r="D102" t="n">
-        <v>27.1</v>
+        <v>26.2</v>
       </c>
       <c r="E102" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F102" t="n">
-        <v>16611.14920738007</v>
+        <v>135573.8106</v>
       </c>
       <c r="G102" t="n">
-        <v>26.45333333333332</v>
+        <v>26.42166666666666</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,7 +3342,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="C103" t="n">
         <v>27.1</v>
@@ -3043,15 +3351,18 @@
         <v>27.1</v>
       </c>
       <c r="E103" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="F103" t="n">
-        <v>16585.26929630996</v>
+        <v>16611.14920738007</v>
       </c>
       <c r="G103" t="n">
-        <v>26.48166666666665</v>
+        <v>26.45333333333332</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="C104" t="n">
-        <v>26.2</v>
+        <v>27.1</v>
       </c>
       <c r="D104" t="n">
-        <v>26.5</v>
+        <v>27.1</v>
       </c>
       <c r="E104" t="n">
-        <v>26.2</v>
+        <v>26.9</v>
       </c>
       <c r="F104" t="n">
-        <v>56922.7285</v>
+        <v>16585.26929630996</v>
       </c>
       <c r="G104" t="n">
-        <v>26.49333333333332</v>
+        <v>26.48166666666665</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C105" t="n">
         <v>26.2</v>
       </c>
-      <c r="C105" t="n">
-        <v>26.1</v>
-      </c>
       <c r="D105" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E105" t="n">
         <v>26.2</v>
       </c>
-      <c r="E105" t="n">
-        <v>26.1</v>
-      </c>
       <c r="F105" t="n">
-        <v>28461.3642</v>
+        <v>56922.7285</v>
       </c>
       <c r="G105" t="n">
-        <v>26.50166666666665</v>
+        <v>26.49333333333332</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3115,21 +3432,24 @@
         <v>26.2</v>
       </c>
       <c r="C106" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D106" t="n">
         <v>26.2</v>
       </c>
       <c r="E106" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F106" t="n">
-        <v>4955.2004</v>
+        <v>28461.3642</v>
       </c>
       <c r="G106" t="n">
-        <v>26.51499999999998</v>
+        <v>26.50166666666665</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C107" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D107" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E107" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F107" t="n">
-        <v>23506.1639</v>
+        <v>4955.2004</v>
       </c>
       <c r="G107" t="n">
-        <v>26.52666666666665</v>
+        <v>26.51499999999998</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="C108" t="n">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="D108" t="n">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="E108" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="F108" t="n">
-        <v>12315</v>
+        <v>23506.1639</v>
       </c>
       <c r="G108" t="n">
-        <v>26.54833333333331</v>
+        <v>26.52666666666665</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C109" t="n">
         <v>26.6</v>
       </c>
-      <c r="C109" t="n">
-        <v>27</v>
-      </c>
       <c r="D109" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="E109" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="F109" t="n">
-        <v>9404</v>
+        <v>12315</v>
       </c>
       <c r="G109" t="n">
-        <v>26.57499999999998</v>
+        <v>26.54833333333331</v>
       </c>
       <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>26.1</v>
+        <v>26.6</v>
       </c>
       <c r="C110" t="n">
-        <v>26.1</v>
+        <v>27</v>
       </c>
       <c r="D110" t="n">
-        <v>26.1</v>
+        <v>27</v>
       </c>
       <c r="E110" t="n">
-        <v>26.1</v>
+        <v>26.6</v>
       </c>
       <c r="F110" t="n">
-        <v>67428.6361</v>
+        <v>9404</v>
       </c>
       <c r="G110" t="n">
-        <v>26.58999999999997</v>
+        <v>26.57499999999998</v>
       </c>
       <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C111" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D111" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E111" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F111" t="n">
-        <v>18.7193</v>
+        <v>67428.6361</v>
       </c>
       <c r="G111" t="n">
-        <v>26.60499999999998</v>
+        <v>26.58999999999997</v>
       </c>
       <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>26.9</v>
+        <v>26.2</v>
       </c>
       <c r="C112" t="n">
-        <v>26.9</v>
+        <v>26.2</v>
       </c>
       <c r="D112" t="n">
-        <v>26.9</v>
+        <v>26.2</v>
       </c>
       <c r="E112" t="n">
-        <v>26.9</v>
+        <v>26.2</v>
       </c>
       <c r="F112" t="n">
-        <v>1980</v>
+        <v>18.7193</v>
       </c>
       <c r="G112" t="n">
-        <v>26.63166666666665</v>
+        <v>26.60499999999998</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>26.9</v>
       </c>
       <c r="F113" t="n">
-        <v>7010</v>
+        <v>1980</v>
       </c>
       <c r="G113" t="n">
-        <v>26.65833333333331</v>
+        <v>26.63166666666665</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="C114" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="D114" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="E114" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="F114" t="n">
-        <v>3773.584</v>
+        <v>7010</v>
       </c>
       <c r="G114" t="n">
-        <v>26.67666666666664</v>
+        <v>26.65833333333331</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="C115" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="D115" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="E115" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="F115" t="n">
-        <v>4315.7579</v>
+        <v>3773.584</v>
       </c>
       <c r="G115" t="n">
-        <v>26.68999999999998</v>
+        <v>26.67666666666664</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C116" t="n">
         <v>26.2</v>
       </c>
       <c r="D116" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E116" t="n">
         <v>26.2</v>
       </c>
       <c r="F116" t="n">
-        <v>34075.3506</v>
+        <v>4315.7579</v>
       </c>
       <c r="G116" t="n">
-        <v>26.69999999999998</v>
+        <v>26.68999999999998</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="C117" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="D117" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="E117" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="F117" t="n">
-        <v>4160.2326</v>
+        <v>34075.3506</v>
       </c>
       <c r="G117" t="n">
-        <v>26.71833333333332</v>
+        <v>26.69999999999998</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="C118" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="D118" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="E118" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="F118" t="n">
-        <v>100</v>
+        <v>4160.2326</v>
       </c>
       <c r="G118" t="n">
-        <v>26.73166666666665</v>
+        <v>26.71833333333332</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,7 +3806,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="C119" t="n">
         <v>26.8</v>
@@ -3459,15 +3815,18 @@
         <v>26.8</v>
       </c>
       <c r="E119" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="F119" t="n">
-        <v>16578.04192089552</v>
+        <v>100</v>
       </c>
       <c r="G119" t="n">
-        <v>26.71999999999998</v>
+        <v>26.73166666666665</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C120" t="n">
         <v>26.8</v>
       </c>
-      <c r="C120" t="n">
-        <v>26.9</v>
-      </c>
       <c r="D120" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="E120" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="F120" t="n">
-        <v>27019.82335456916</v>
+        <v>16578.04192089552</v>
       </c>
       <c r="G120" t="n">
-        <v>26.71166666666665</v>
+        <v>26.71999999999998</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="C121" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="D121" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="E121" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="F121" t="n">
-        <v>519.3223</v>
+        <v>27019.82335456916</v>
       </c>
       <c r="G121" t="n">
-        <v>26.69999999999998</v>
+        <v>26.71166666666665</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="C122" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="D122" t="n">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="E122" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="F122" t="n">
-        <v>15828.1662</v>
+        <v>519.3223</v>
       </c>
       <c r="G122" t="n">
-        <v>26.68333333333332</v>
+        <v>26.69999999999998</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C123" t="n">
         <v>26.3</v>
       </c>
-      <c r="C123" t="n">
-        <v>26.2</v>
-      </c>
       <c r="D123" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E123" t="n">
         <v>26.3</v>
       </c>
-      <c r="E123" t="n">
-        <v>26.2</v>
-      </c>
       <c r="F123" t="n">
-        <v>10000.2444</v>
+        <v>15828.1662</v>
       </c>
       <c r="G123" t="n">
-        <v>26.68666666666665</v>
+        <v>26.68333333333332</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="C124" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="D124" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="E124" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="F124" t="n">
-        <v>3067.3233</v>
+        <v>10000.2444</v>
       </c>
       <c r="G124" t="n">
-        <v>26.69499999999998</v>
+        <v>26.68666666666665</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="C125" t="n">
         <v>26.5</v>
       </c>
       <c r="D125" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="E125" t="n">
         <v>26.5</v>
       </c>
       <c r="F125" t="n">
-        <v>1013.2037</v>
+        <v>3067.3233</v>
       </c>
       <c r="G125" t="n">
-        <v>26.69999999999998</v>
+        <v>26.69499999999998</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="C126" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="D126" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="E126" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="F126" t="n">
-        <v>8325</v>
+        <v>1013.2037</v>
       </c>
       <c r="G126" t="n">
-        <v>26.70833333333331</v>
+        <v>26.69999999999998</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C127" t="n">
         <v>26.7</v>
       </c>
-      <c r="C127" t="n">
-        <v>26.8</v>
-      </c>
       <c r="D127" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="E127" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="F127" t="n">
-        <v>780</v>
+        <v>8325</v>
       </c>
       <c r="G127" t="n">
-        <v>26.70999999999998</v>
+        <v>26.70833333333331</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3687,21 +4070,24 @@
         <v>26.7</v>
       </c>
       <c r="C128" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="D128" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="E128" t="n">
         <v>26.7</v>
       </c>
       <c r="F128" t="n">
-        <v>19751.52691561338</v>
+        <v>780</v>
       </c>
       <c r="G128" t="n">
-        <v>26.71666666666665</v>
+        <v>26.70999999999998</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,7 +4096,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="C129" t="n">
         <v>26.9</v>
@@ -3719,15 +4105,18 @@
         <v>26.9</v>
       </c>
       <c r="E129" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="F129" t="n">
-        <v>33187.3977</v>
+        <v>19751.52691561338</v>
       </c>
       <c r="G129" t="n">
-        <v>26.71999999999998</v>
+        <v>26.71666666666665</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3748,12 +4137,15 @@
         <v>26.9</v>
       </c>
       <c r="F130" t="n">
-        <v>32065</v>
+        <v>33187.3977</v>
       </c>
       <c r="G130" t="n">
-        <v>26.72333333333331</v>
+        <v>26.71999999999998</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3765,21 +4157,24 @@
         <v>26.9</v>
       </c>
       <c r="C131" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="D131" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="E131" t="n">
         <v>26.9</v>
       </c>
       <c r="F131" t="n">
-        <v>45575.2592</v>
+        <v>32065</v>
       </c>
       <c r="G131" t="n">
         <v>26.72333333333331</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,7 +4183,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="C132" t="n">
         <v>27</v>
@@ -3797,15 +4192,18 @@
         <v>27</v>
       </c>
       <c r="E132" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="F132" t="n">
-        <v>15545.96870892193</v>
+        <v>45575.2592</v>
       </c>
       <c r="G132" t="n">
-        <v>26.72166666666665</v>
+        <v>26.72333333333331</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="C133" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="D133" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="E133" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="F133" t="n">
-        <v>49730.5955</v>
+        <v>15545.96870892193</v>
       </c>
       <c r="G133" t="n">
-        <v>26.72333333333332</v>
+        <v>26.72166666666665</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,7 +4241,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="C134" t="n">
         <v>27.2</v>
@@ -3849,15 +4250,18 @@
         <v>27.2</v>
       </c>
       <c r="E134" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F134" t="n">
-        <v>71359.0514</v>
+        <v>49730.5955</v>
       </c>
       <c r="G134" t="n">
-        <v>26.72166666666665</v>
+        <v>26.72333333333332</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3869,21 +4273,24 @@
         <v>27.2</v>
       </c>
       <c r="C135" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D135" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E135" t="n">
         <v>27.2</v>
       </c>
       <c r="F135" t="n">
-        <v>17804.125</v>
+        <v>71359.0514</v>
       </c>
       <c r="G135" t="n">
-        <v>26.72999999999999</v>
+        <v>26.72166666666665</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C136" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D136" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E136" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F136" t="n">
-        <v>109</v>
+        <v>17804.125</v>
       </c>
       <c r="G136" t="n">
-        <v>26.72833333333332</v>
+        <v>26.72999999999999</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3921,21 +4331,24 @@
         <v>27.4</v>
       </c>
       <c r="C137" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D137" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E137" t="n">
         <v>27.4</v>
       </c>
       <c r="F137" t="n">
-        <v>7000</v>
+        <v>109</v>
       </c>
       <c r="G137" t="n">
-        <v>26.72666666666665</v>
+        <v>26.72833333333332</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C138" t="n">
         <v>27.6</v>
       </c>
-      <c r="C138" t="n">
-        <v>27.7</v>
-      </c>
       <c r="D138" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E138" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F138" t="n">
-        <v>153211.6672</v>
+        <v>7000</v>
       </c>
       <c r="G138" t="n">
         <v>26.72666666666665</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C139" t="n">
         <v>27.7</v>
       </c>
-      <c r="C139" t="n">
-        <v>27.9</v>
-      </c>
       <c r="D139" t="n">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="E139" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F139" t="n">
-        <v>106865.9616</v>
+        <v>153211.6672</v>
       </c>
       <c r="G139" t="n">
-        <v>26.73166666666666</v>
+        <v>26.72666666666665</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C140" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D140" t="n">
-        <v>27.8</v>
+        <v>28.1</v>
       </c>
       <c r="E140" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F140" t="n">
-        <v>1000</v>
+        <v>106865.9616</v>
       </c>
       <c r="G140" t="n">
-        <v>26.74333333333333</v>
+        <v>26.73166666666666</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="C141" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="D141" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="E141" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="F141" t="n">
-        <v>11140.5075</v>
+        <v>1000</v>
       </c>
       <c r="G141" t="n">
-        <v>26.74499999999999</v>
+        <v>26.74333333333333</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4051,21 +4476,24 @@
         <v>27.3</v>
       </c>
       <c r="C142" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D142" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="E142" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F142" t="n">
-        <v>22722.4973</v>
+        <v>11140.5075</v>
       </c>
       <c r="G142" t="n">
-        <v>26.75166666666665</v>
+        <v>26.74499999999999</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C143" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D143" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E143" t="n">
         <v>27.2</v>
       </c>
-      <c r="C143" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D143" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E143" t="n">
-        <v>26.9</v>
-      </c>
       <c r="F143" t="n">
-        <v>64082.2474</v>
+        <v>22722.4973</v>
       </c>
       <c r="G143" t="n">
-        <v>26.73999999999999</v>
+        <v>26.75166666666665</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="C144" t="n">
         <v>26.9</v>
       </c>
       <c r="D144" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="E144" t="n">
         <v>26.9</v>
       </c>
       <c r="F144" t="n">
-        <v>46213.1834</v>
+        <v>64082.2474</v>
       </c>
       <c r="G144" t="n">
-        <v>26.72833333333333</v>
+        <v>26.73999999999999</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4132,18 +4566,21 @@
         <v>26.9</v>
       </c>
       <c r="D145" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="E145" t="n">
         <v>26.9</v>
       </c>
       <c r="F145" t="n">
-        <v>31821.3868</v>
+        <v>46213.1834</v>
       </c>
       <c r="G145" t="n">
-        <v>26.71833333333333</v>
+        <v>26.72833333333333</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="C146" t="n">
         <v>26.9</v>
       </c>
       <c r="D146" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="E146" t="n">
         <v>26.9</v>
       </c>
       <c r="F146" t="n">
-        <v>54054.9853</v>
+        <v>31821.3868</v>
       </c>
       <c r="G146" t="n">
-        <v>26.70666666666666</v>
+        <v>26.71833333333333</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="C147" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="D147" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="E147" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="F147" t="n">
-        <v>10</v>
+        <v>54054.9853</v>
       </c>
       <c r="G147" t="n">
-        <v>26.71333333333333</v>
+        <v>26.70666666666666</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,24 +4647,27 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="C148" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="D148" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="E148" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="F148" t="n">
-        <v>4241.2634</v>
+        <v>10</v>
       </c>
       <c r="G148" t="n">
-        <v>26.71</v>
+        <v>26.71333333333333</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="C149" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="D149" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="E149" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="F149" t="n">
-        <v>68195.24340000001</v>
+        <v>4241.2634</v>
       </c>
       <c r="G149" t="n">
-        <v>26.71166666666667</v>
+        <v>26.71</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,7 +4705,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="C150" t="n">
         <v>26.7</v>
@@ -4265,15 +4714,18 @@
         <v>26.7</v>
       </c>
       <c r="E150" t="n">
-        <v>26.1</v>
+        <v>26.7</v>
       </c>
       <c r="F150" t="n">
-        <v>51194.2703</v>
+        <v>68195.24340000001</v>
       </c>
       <c r="G150" t="n">
-        <v>26.71666666666667</v>
+        <v>26.71166666666667</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>26.9</v>
+        <v>26.4</v>
       </c>
       <c r="C151" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="D151" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="E151" t="n">
-        <v>26.9</v>
+        <v>26.1</v>
       </c>
       <c r="F151" t="n">
-        <v>10</v>
+        <v>51194.2703</v>
       </c>
       <c r="G151" t="n">
-        <v>26.72666666666667</v>
+        <v>26.71666666666667</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>26.2</v>
+        <v>26.9</v>
       </c>
       <c r="C152" t="n">
-        <v>26.2</v>
+        <v>26.9</v>
       </c>
       <c r="D152" t="n">
-        <v>26.2</v>
+        <v>26.9</v>
       </c>
       <c r="E152" t="n">
-        <v>26.2</v>
+        <v>26.9</v>
       </c>
       <c r="F152" t="n">
-        <v>4232.263</v>
+        <v>10</v>
       </c>
       <c r="G152" t="n">
-        <v>26.725</v>
+        <v>26.72666666666667</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C153" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="D153" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="E153" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F153" t="n">
-        <v>1011</v>
+        <v>4232.263</v>
       </c>
       <c r="G153" t="n">
-        <v>26.72666666666667</v>
+        <v>26.725</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C154" t="n">
         <v>26.4</v>
       </c>
-      <c r="C154" t="n">
-        <v>26.6</v>
-      </c>
       <c r="D154" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="E154" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="F154" t="n">
-        <v>8000</v>
+        <v>1011</v>
       </c>
       <c r="G154" t="n">
-        <v>26.73166666666667</v>
+        <v>26.72666666666667</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="C155" t="n">
-        <v>26.9</v>
+        <v>26.6</v>
       </c>
       <c r="D155" t="n">
-        <v>26.9</v>
+        <v>26.6</v>
       </c>
       <c r="E155" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="F155" t="n">
-        <v>30</v>
+        <v>8000</v>
       </c>
       <c r="G155" t="n">
-        <v>26.74333333333334</v>
+        <v>26.73166666666667</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="C156" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="D156" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="E156" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="F156" t="n">
-        <v>5910</v>
+        <v>30</v>
       </c>
       <c r="G156" t="n">
-        <v>26.75333333333334</v>
+        <v>26.74333333333334</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="C157" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="D157" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="E157" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="F157" t="n">
-        <v>1980</v>
+        <v>5910</v>
       </c>
       <c r="G157" t="n">
-        <v>26.76166666666667</v>
+        <v>26.75333333333334</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="C158" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="D158" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="E158" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="F158" t="n">
-        <v>10</v>
+        <v>1980</v>
       </c>
       <c r="G158" t="n">
-        <v>26.77333333333334</v>
+        <v>26.76166666666667</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="C159" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="D159" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="E159" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="F159" t="n">
-        <v>1469.0477</v>
+        <v>10</v>
       </c>
       <c r="G159" t="n">
-        <v>26.77833333333334</v>
+        <v>26.77333333333334</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="C160" t="n">
-        <v>26.8</v>
+        <v>26.4</v>
       </c>
       <c r="D160" t="n">
-        <v>26.8</v>
+        <v>26.4</v>
       </c>
       <c r="E160" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="F160" t="n">
-        <v>1688.0634</v>
+        <v>1469.0477</v>
       </c>
       <c r="G160" t="n">
-        <v>26.79000000000001</v>
+        <v>26.77833333333334</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="C161" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="D161" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="E161" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="F161" t="n">
-        <v>70588.6951</v>
+        <v>1688.0634</v>
       </c>
       <c r="G161" t="n">
-        <v>26.80333333333334</v>
+        <v>26.79000000000001</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="C162" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="D162" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="E162" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="F162" t="n">
-        <v>22</v>
+        <v>70588.6951</v>
       </c>
       <c r="G162" t="n">
-        <v>26.80500000000001</v>
+        <v>26.80333333333334</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C163" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D163" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E163" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F163" t="n">
-        <v>364.4102</v>
+        <v>22</v>
       </c>
       <c r="G163" t="n">
-        <v>26.80833333333334</v>
+        <v>26.80500000000001</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4623,21 +5114,24 @@
         <v>27.3</v>
       </c>
       <c r="C164" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D164" t="n">
         <v>27.3</v>
       </c>
       <c r="E164" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F164" t="n">
-        <v>1958.4798</v>
+        <v>364.4102</v>
       </c>
       <c r="G164" t="n">
-        <v>26.82500000000001</v>
+        <v>26.80833333333334</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4649,21 +5143,24 @@
         <v>27.3</v>
       </c>
       <c r="C165" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D165" t="n">
         <v>27.3</v>
       </c>
       <c r="E165" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F165" t="n">
-        <v>3341.6769</v>
+        <v>1958.4798</v>
       </c>
       <c r="G165" t="n">
-        <v>26.84500000000001</v>
+        <v>26.82500000000001</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4684,12 +5181,15 @@
         <v>27.3</v>
       </c>
       <c r="F166" t="n">
-        <v>1147.8121</v>
+        <v>3341.6769</v>
       </c>
       <c r="G166" t="n">
-        <v>26.86333333333334</v>
+        <v>26.84500000000001</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4701,21 +5201,24 @@
         <v>27.3</v>
       </c>
       <c r="C167" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D167" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="E167" t="n">
         <v>27.3</v>
       </c>
       <c r="F167" t="n">
-        <v>46343.1862</v>
+        <v>1147.8121</v>
       </c>
       <c r="G167" t="n">
-        <v>26.88666666666668</v>
+        <v>26.86333333333334</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="C168" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D168" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E168" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="F168" t="n">
-        <v>11</v>
+        <v>46343.1862</v>
       </c>
       <c r="G168" t="n">
-        <v>26.90500000000002</v>
+        <v>26.88666666666668</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C169" t="n">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="D169" t="n">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="E169" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F169" t="n">
-        <v>42328.1856</v>
+        <v>11</v>
       </c>
       <c r="G169" t="n">
-        <v>26.92333333333335</v>
+        <v>26.90500000000002</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="C170" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="D170" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="E170" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F170" t="n">
-        <v>19327.5117</v>
+        <v>42328.1856</v>
       </c>
       <c r="G170" t="n">
-        <v>26.95333333333335</v>
+        <v>26.92333333333335</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="C171" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="D171" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="E171" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="F171" t="n">
-        <v>10830.3249</v>
+        <v>19327.5117</v>
       </c>
       <c r="G171" t="n">
-        <v>26.97833333333335</v>
+        <v>26.95333333333335</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4840,12 +5355,15 @@
         <v>27.7</v>
       </c>
       <c r="F172" t="n">
-        <v>85431.7001</v>
+        <v>10830.3249</v>
       </c>
       <c r="G172" t="n">
-        <v>26.99166666666668</v>
+        <v>26.97833333333335</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C173" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D173" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E173" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F173" t="n">
-        <v>11430.8606</v>
+        <v>85431.7001</v>
       </c>
       <c r="G173" t="n">
-        <v>27.00666666666668</v>
+        <v>26.99166666666668</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4886,18 +5407,21 @@
         <v>27.8</v>
       </c>
       <c r="D174" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E174" t="n">
         <v>27.8</v>
       </c>
       <c r="F174" t="n">
-        <v>45935.0413</v>
+        <v>11430.8606</v>
       </c>
       <c r="G174" t="n">
-        <v>27.02833333333335</v>
+        <v>27.00666666666668</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="C175" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D175" t="n">
         <v>27.9</v>
       </c>
-      <c r="D175" t="n">
-        <v>28.2</v>
-      </c>
       <c r="E175" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F175" t="n">
-        <v>91695.5295</v>
+        <v>45935.0413</v>
       </c>
       <c r="G175" t="n">
-        <v>27.05666666666668</v>
+        <v>27.02833333333335</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="C176" t="n">
-        <v>28.2</v>
+        <v>27.9</v>
       </c>
       <c r="D176" t="n">
         <v>28.2</v>
       </c>
       <c r="E176" t="n">
-        <v>28.2</v>
+        <v>27.9</v>
       </c>
       <c r="F176" t="n">
-        <v>3253.2624</v>
+        <v>91695.5295</v>
       </c>
       <c r="G176" t="n">
-        <v>27.09000000000001</v>
+        <v>27.05666666666668</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>27.9</v>
+        <v>28.2</v>
       </c>
       <c r="C177" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="D177" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="E177" t="n">
-        <v>27.9</v>
+        <v>28.2</v>
       </c>
       <c r="F177" t="n">
-        <v>56192.3214</v>
+        <v>3253.2624</v>
       </c>
       <c r="G177" t="n">
-        <v>27.11166666666668</v>
+        <v>27.09000000000001</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="C178" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="D178" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="E178" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="F178" t="n">
-        <v>1686.3078</v>
+        <v>56192.3214</v>
       </c>
       <c r="G178" t="n">
-        <v>27.13333333333334</v>
+        <v>27.11166666666668</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="C179" t="n">
-        <v>27.7</v>
+        <v>28.1</v>
       </c>
       <c r="D179" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="E179" t="n">
-        <v>27.7</v>
+        <v>28.1</v>
       </c>
       <c r="F179" t="n">
-        <v>67082.43610000001</v>
+        <v>1686.3078</v>
       </c>
       <c r="G179" t="n">
-        <v>27.14833333333335</v>
+        <v>27.13333333333334</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5045,15 +5584,18 @@
         <v>28</v>
       </c>
       <c r="E180" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F180" t="n">
-        <v>9387.483200000001</v>
+        <v>67082.43610000001</v>
       </c>
       <c r="G180" t="n">
-        <v>27.16166666666668</v>
+        <v>27.14833333333335</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="C181" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="D181" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="E181" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="F181" t="n">
-        <v>10</v>
+        <v>9387.483200000001</v>
       </c>
       <c r="G181" t="n">
-        <v>27.18333333333335</v>
+        <v>27.16166666666668</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="C182" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="D182" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="E182" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="F182" t="n">
         <v>10</v>
       </c>
       <c r="G182" t="n">
-        <v>27.21166666666668</v>
+        <v>27.18333333333335</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5117,21 +5665,24 @@
         <v>28</v>
       </c>
       <c r="C183" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="D183" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="E183" t="n">
         <v>28</v>
       </c>
       <c r="F183" t="n">
-        <v>99704.9767</v>
+        <v>10</v>
       </c>
       <c r="G183" t="n">
-        <v>27.24500000000002</v>
+        <v>27.21166666666668</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,544 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="C184" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="D184" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="E184" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="F184" t="n">
-        <v>3872.064056939502</v>
+        <v>99704.9767</v>
       </c>
       <c r="G184" t="n">
-        <v>27.27166666666668</v>
+        <v>27.24500000000002</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C185" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D185" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E185" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F185" t="n">
-        <v>10924.5981</v>
-      </c>
-      <c r="G185" t="n">
-        <v>27.29166666666668</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C186" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D186" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E186" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F186" t="n">
-        <v>14816.4799</v>
-      </c>
-      <c r="G186" t="n">
-        <v>27.30833333333335</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C187" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D187" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E187" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F187" t="n">
-        <v>22944.7613</v>
-      </c>
-      <c r="G187" t="n">
-        <v>27.32333333333335</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C188" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D188" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E188" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F188" t="n">
-        <v>363.1679</v>
-      </c>
-      <c r="G188" t="n">
-        <v>27.33500000000002</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C189" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D189" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E189" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F189" t="n">
-        <v>11684.8393</v>
-      </c>
-      <c r="G189" t="n">
-        <v>27.34666666666668</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C190" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D190" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E190" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F190" t="n">
-        <v>144631.7688</v>
-      </c>
-      <c r="G190" t="n">
-        <v>27.34666666666668</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C191" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D191" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E191" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F191" t="n">
-        <v>40494.8199</v>
-      </c>
-      <c r="G191" t="n">
-        <v>27.35833333333334</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C192" t="n">
-        <v>28</v>
-      </c>
-      <c r="D192" t="n">
-        <v>28</v>
-      </c>
-      <c r="E192" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F192" t="n">
-        <v>38974.6574</v>
-      </c>
-      <c r="G192" t="n">
-        <v>27.37500000000001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C193" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D193" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E193" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F193" t="n">
-        <v>1243.7275</v>
-      </c>
-      <c r="G193" t="n">
-        <v>27.38666666666668</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C194" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D194" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E194" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F194" t="n">
-        <v>2080.8243</v>
-      </c>
-      <c r="G194" t="n">
-        <v>27.39833333333335</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C195" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D195" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E195" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F195" t="n">
-        <v>11</v>
-      </c>
-      <c r="G195" t="n">
-        <v>27.40833333333335</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C196" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D196" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E196" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F196" t="n">
-        <v>4722.0949</v>
-      </c>
-      <c r="G196" t="n">
-        <v>27.41333333333335</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C197" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D197" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E197" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F197" t="n">
-        <v>5123.352</v>
-      </c>
-      <c r="G197" t="n">
-        <v>27.40666666666668</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C198" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D198" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E198" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F198" t="n">
-        <v>10</v>
-      </c>
-      <c r="G198" t="n">
-        <v>27.40500000000002</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C199" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D199" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E199" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F199" t="n">
-        <v>5452.3702</v>
-      </c>
-      <c r="G199" t="n">
-        <v>27.39666666666668</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C200" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D200" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E200" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F200" t="n">
-        <v>2015.3271</v>
-      </c>
-      <c r="G200" t="n">
-        <v>27.39166666666668</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C201" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D201" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E201" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F201" t="n">
-        <v>5646.6497</v>
-      </c>
-      <c r="G201" t="n">
-        <v>27.39666666666668</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C202" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D202" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E202" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F202" t="n">
-        <v>2010</v>
-      </c>
-      <c r="G202" t="n">
-        <v>27.39666666666668</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C203" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D203" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E203" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F203" t="n">
-        <v>20534.24</v>
-      </c>
-      <c r="G203" t="n">
-        <v>27.40833333333335</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C204" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D204" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E204" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F204" t="n">
-        <v>14962.5</v>
-      </c>
-      <c r="G204" t="n">
-        <v>27.42166666666668</v>
-      </c>
-      <c r="H204" t="n">
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
